--- a/Uso_de_Ad-blockers_no_YouTube_respostas_aeoooooooo.xlsx
+++ b/Uso_de_Ad-blockers_no_YouTube_respostas_aeoooooooo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\IMT\Estatistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D4C37D-E2AA-40F7-8FFE-9F7C30764CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03214D0-BFDF-4416-9FE1-867E8377A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="mas pagaria" sheetId="15" r:id="rId15"/>
     <sheet name="quanto" sheetId="16" r:id="rId16"/>
     <sheet name="banimento" sheetId="17" r:id="rId17"/>
+    <sheet name="Ocupação x Paga Ad-block" sheetId="18" r:id="rId18"/>
+    <sheet name="usa ad block x banimento" sheetId="19" r:id="rId19"/>
+    <sheet name="horas assistidas x usa ad block" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Idade!$A$2:$A$11</definedName>
@@ -38,7 +41,6 @@
     <definedName name="_xlchart.v1.3" hidden="1">horas!$B$2:$B$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="132">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -414,6 +416,48 @@
   <si>
     <t>VPN</t>
   </si>
+  <si>
+    <t>Só estuda</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>não</t>
+  </si>
+  <si>
+    <t>Paga Ad-block</t>
+  </si>
+  <si>
+    <t>Usa ad block?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usa </t>
+  </si>
+  <si>
+    <t>não usa</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Banimento</t>
+  </si>
+  <si>
+    <t>Nâo sabia</t>
+  </si>
+  <si>
+    <t>Usa Ad block - Horas</t>
+  </si>
+  <si>
+    <t>Não usa Ad block - Horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim </t>
+  </si>
+  <si>
+    <t>Não utiliza</t>
+  </si>
 </sst>
 </file>
 
@@ -480,20 +524,206 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -502,7 +732,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -535,6 +765,136 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -2465,6 +2825,1083 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Paga pelo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> uso de Ad-blockers</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estudante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Não utiliza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B19-44F5-A215-1F79F0FD0EF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estudante e estagiário(a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Não utiliza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B19-44F5-A215-1F79F0FD0EF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Empregado(a) em tempo integral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Não utiliza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07AB-4884-9DF7-6773DD990B9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autônomo(a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Não utiliza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ocupação x Paga Ad-block'!$H$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07AB-4884-9DF7-6773DD990B9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1161748447"/>
+        <c:axId val="1161739327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1161748447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161739327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1161739327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1161748447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Banimento de ad blocks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Utiliza ad blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'usa ad block x banimento'!$D$12:$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sem opinião</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nâo sabia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'usa ad block x banimento'!$D$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-558C-4DB7-9D02-04AEBA6FBB99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Não utiliza ad blocks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'usa ad block x banimento'!$D$12:$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sim</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sem opinião</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nâo sabia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'usa ad block x banimento'!$D$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-558C-4DB7-9D02-04AEBA6FBB99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="83602048"/>
+        <c:axId val="83628448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83602048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83628448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83628448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Qunatidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83602048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5790,6 +7227,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -10177,6 +11694,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14731,6 +17254,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08E5539-73DB-515D-547D-FF16037FA9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219515</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442254</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15531</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1984CBE-615A-3203-71A8-589835ED4E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1860867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D31D83-5C7A-287E-53D3-59AED5EAD8BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15324,7 +17929,7 @@
   </sheetPr>
   <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
@@ -15350,7 +17955,7 @@
     <col min="17" max="22" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15400,7 +18005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45385.734142581015</v>
       </c>
@@ -15450,7 +18055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45390.459459375001</v>
       </c>
@@ -15500,7 +18105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45390.801655509262</v>
       </c>
@@ -15550,7 +18155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45390.807127395834</v>
       </c>
@@ -15600,7 +18205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45390.808099282411</v>
       </c>
@@ -15650,7 +18255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45390.808165694441</v>
       </c>
@@ -15700,7 +18305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45390.808431770834</v>
       </c>
@@ -15750,7 +18355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45390.808893159723</v>
       </c>
@@ -15800,7 +18405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45390.809271458333</v>
       </c>
@@ -15850,7 +18455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45390.811045474533</v>
       </c>
@@ -15900,7 +18505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45390.81343086806</v>
       </c>
@@ -15950,7 +18555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45390.814590439812</v>
       </c>
@@ -16000,7 +18605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45390.814863506945</v>
       </c>
@@ -16050,7 +18655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45390.81486918981</v>
       </c>
@@ -16100,7 +18705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45390.815115972218</v>
       </c>
@@ -16150,7 +18755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45390.816471944447</v>
       </c>
@@ -16200,7 +18805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45390.816500000001</v>
       </c>
@@ -16250,7 +18855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45390.816712129628</v>
       </c>
@@ -16300,7 +18905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45390.819684421294</v>
       </c>
@@ -16350,7 +18955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45390.820125092592</v>
       </c>
@@ -16400,7 +19005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45390.820605196757</v>
       </c>
@@ -16450,7 +19055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45390.822525023148</v>
       </c>
@@ -16500,7 +19105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45390.824583935188</v>
       </c>
@@ -16550,7 +19155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45390.828169548608</v>
       </c>
@@ -16600,7 +19205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45390.831629733795</v>
       </c>
@@ -16650,7 +19255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45390.834871168983</v>
       </c>
@@ -16700,7 +19305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45390.836184050924</v>
       </c>
@@ -16750,7 +19355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45390.86686707176</v>
       </c>
@@ -16800,7 +19405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45390.87331210648</v>
       </c>
@@ -16850,7 +19455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45390.876388923614</v>
       </c>
@@ -16900,7 +19505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45390.93863822917</v>
       </c>
@@ -16950,7 +19555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45390.948422881949</v>
       </c>
@@ -17000,7 +19605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45391.264403865745</v>
       </c>
@@ -17050,7 +19655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45391.384265011569</v>
       </c>
@@ -17100,7 +19705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45391.566237407409</v>
       </c>
@@ -17150,7 +19755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45391.628021956014</v>
       </c>
@@ -17200,7 +19805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45391.754847766206</v>
       </c>
@@ -17250,7 +19855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45399.256535497683</v>
       </c>
@@ -17300,7 +19905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45399.26235149306</v>
       </c>
@@ -17350,7 +19955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45399.267404699072</v>
       </c>
@@ -17400,7 +20005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45399.268568460648</v>
       </c>
@@ -17450,7 +20055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45399.268680648151</v>
       </c>
@@ -17500,7 +20105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45399.296448379631</v>
       </c>
@@ -17550,7 +20155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45399.316600069447</v>
       </c>
@@ -17600,7 +20205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45399.334346759264</v>
       </c>
@@ -17650,7 +20255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45399.410870127314</v>
       </c>
@@ -17700,7 +20305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45399.42484010417</v>
       </c>
@@ -17750,7 +20355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45400.542459456017</v>
       </c>
@@ -17800,7 +20405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45400.543394907407</v>
       </c>
@@ -17850,7 +20455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45400.547897662036</v>
       </c>
@@ -17900,7 +20505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45400.561978981481</v>
       </c>
@@ -17950,7 +20555,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45400.564653067129</v>
       </c>
@@ -18000,7 +20605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45400.56859894676</v>
       </c>
@@ -18050,7 +20655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45400.578285787036</v>
       </c>
@@ -18100,7 +20705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45400.596421018519</v>
       </c>
@@ -18150,7 +20755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45400.600159131944</v>
       </c>
@@ -18200,7 +20805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45400.635468495369</v>
       </c>
@@ -18250,7 +20855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45415.791529710652</v>
       </c>
@@ -18311,7 +20916,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18579,7 +21184,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18685,8 +21290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3029C6-DA7B-4C31-BED0-51666C36670B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19007,7 +21612,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19031,11 +21636,11 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,A2)</f>
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,$A$2)</f>
         <v>15</v>
       </c>
       <c r="C2" s="9">
-        <f>B2/$B$7</f>
+        <f>B2/B7</f>
         <v>0.26785714285714285</v>
       </c>
     </row>
@@ -19044,11 +21649,11 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,A3)</f>
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,$A$3)</f>
         <v>25</v>
       </c>
       <c r="C3" s="9">
-        <f>B3/$B$7</f>
+        <f>B3/B7</f>
         <v>0.44642857142857145</v>
       </c>
     </row>
@@ -19057,11 +21662,11 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,A4)</f>
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,$A$4)</f>
         <v>9</v>
       </c>
       <c r="C4" s="9">
-        <f>B4/$B$7</f>
+        <f>B4/B7</f>
         <v>0.16071428571428573</v>
       </c>
     </row>
@@ -19070,11 +21675,11 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,A5)</f>
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,$A$5)</f>
         <v>7</v>
       </c>
       <c r="C5" s="9">
-        <f>B5/$B$7</f>
+        <f>B5/B7</f>
         <v>0.125</v>
       </c>
     </row>
@@ -19093,6 +21698,1137 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33262717-9749-4C5B-A525-540553B2DDD0}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF('Tratamento de dados'!$D$2:$D$57,ocupacao!A2)</f>
+        <v>41</v>
+      </c>
+      <c r="C2" s="41">
+        <f>B2/$B$7</f>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="22">
+        <f>COUNTIF('Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF('Tratamento de dados'!$D$2:$D$57,ocupacao!A3)</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="41">
+        <f>B3/$B$7</f>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="22">
+        <f>COUNTIF('Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$3)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF('Tratamento de dados'!$D$2:$D$57,ocupacao!A4)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="41">
+        <f>B4/$B$7</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="22">
+        <f>COUNTIF('Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$4)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF('Tratamento de dados'!$D$2:$D$57,ocupacao!A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="41">
+        <f>B5/$B$7</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="C6" s="41"/>
+      <c r="F6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="29">
+        <f>SUM(G2:G4)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="28">
+        <f>SUM(B2:B5)</f>
+        <v>56</v>
+      </c>
+      <c r="C7" s="42">
+        <f>SUM(C2:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A$2)</f>
+        <v>41</v>
+      </c>
+      <c r="C11" s="41">
+        <f>B11/$B$7</f>
+        <v>0.7321428571428571</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="65" t="str">
+        <f>A2</f>
+        <v>Estudante</v>
+      </c>
+      <c r="H11" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A2,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$2)</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A2,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$3)</f>
+        <v>11</v>
+      </c>
+      <c r="J11" s="59">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A2,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$4)</f>
+        <v>26</v>
+      </c>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF('Tratamento de dados'!$D$2:$D$57, "&lt;&gt;" &amp; 'Ocupação x Paga Ad-block'!$A$2)</f>
+        <v>15</v>
+      </c>
+      <c r="C12" s="41">
+        <f>B12/$B$7</f>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="65" t="str">
+        <f t="shared" ref="G12:G14" si="0">A3</f>
+        <v>Estudante e estagiário(a)</v>
+      </c>
+      <c r="H12" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A3,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$2)</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A3,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$3)</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="59">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A3,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$4)</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="65" t="str">
+        <f t="shared" si="0"/>
+        <v>Empregado(a) em tempo integral</v>
+      </c>
+      <c r="H13" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A4,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A4,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$3)</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="59">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A4,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$4)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v>Autônomo(a)</v>
+      </c>
+      <c r="H14" s="61">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A5,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="61">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A5,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$3)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="62">
+        <f>COUNTIFS('Tratamento de dados'!$D$2:$D$57,'Ocupação x Paga Ad-block'!$A5,'Tratamento de dados'!$L$2:$L$57,'Ocupação x Paga Ad-block'!$F$4)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="28">
+        <f>SUM(B11:B14)</f>
+        <v>56</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD862A-BCC3-4720-9AE0-BA89EA0E542B}">
+  <dimension ref="B1:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="63"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="53">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A2)</f>
+        <v>14</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="63">
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,E2)</f>
+        <v>15</v>
+      </c>
+      <c r="G2" s="77">
+        <f>F2/F7</f>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="53">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A3)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="63">
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,E3)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="77">
+        <f>F3/F7</f>
+        <v>0.44642857142857145</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="53">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A4)</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="63">
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,E4)</f>
+        <v>9</v>
+      </c>
+      <c r="G4" s="77">
+        <f>F4/F7</f>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="53">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A5)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="63">
+        <f>COUNTIF('Tratamento de dados'!$O$2:$O$57,E5)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="77">
+        <f>F5/F7</f>
+        <v>0.125</v>
+      </c>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="53">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6)</f>
+        <v>29</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="76"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="54">
+        <f>SUM(F2:F5)</f>
+        <v>56</v>
+      </c>
+      <c r="G7" s="79">
+        <f>SUM(G2:G5)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="53">
+        <f>SUM(C2:C6)</f>
+        <v>65</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="64"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+    </row>
+    <row r="11" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="2:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="63"/>
+      <c r="C12" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="63"/>
+      <c r="C13" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E2)</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E3)</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="58">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E4)</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="59">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E5)</f>
+        <v>3</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="63"/>
+      <c r="C14" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="61">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E2)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="61">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E3)</f>
+        <v>11</v>
+      </c>
+      <c r="F14" s="61">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E4)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="62">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$O$2:$O$57,E5)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -19104,7 +22840,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
@@ -19123,7 +22859,7 @@
     <col min="14" max="14" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -19170,7 +22906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -19217,7 +22953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>55</v>
       </c>
@@ -19264,7 +23000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -19311,7 +23047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -19358,7 +23094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -19405,7 +23141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>19</v>
       </c>
@@ -19452,7 +23188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -19499,7 +23235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -19546,7 +23282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -19593,7 +23329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -19640,7 +23376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -19687,7 +23423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -19734,7 +23470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -19781,7 +23517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -19828,7 +23564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -19875,7 +23611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -19922,7 +23658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>21</v>
       </c>
@@ -19969,7 +23705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -20016,7 +23752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -20063,7 +23799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -20110,7 +23846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -20157,7 +23893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -20204,7 +23940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -20251,7 +23987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -20298,7 +24034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -20345,7 +24081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -20392,7 +24128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -20439,7 +24175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>20</v>
       </c>
@@ -20486,7 +24222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -20533,7 +24269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>22</v>
       </c>
@@ -20580,7 +24316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>20</v>
       </c>
@@ -20627,7 +24363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -20674,7 +24410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>22</v>
       </c>
@@ -20721,7 +24457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>22</v>
       </c>
@@ -20768,7 +24504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>20</v>
       </c>
@@ -20815,7 +24551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -20862,7 +24598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>18</v>
       </c>
@@ -20909,7 +24645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>19</v>
       </c>
@@ -20956,7 +24692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>20</v>
       </c>
@@ -21003,7 +24739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>19</v>
       </c>
@@ -21050,7 +24786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>18</v>
       </c>
@@ -21097,7 +24833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>22</v>
       </c>
@@ -21144,7 +24880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>22</v>
       </c>
@@ -21191,7 +24927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>21</v>
       </c>
@@ -21238,7 +24974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>18</v>
       </c>
@@ -21285,7 +25021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -21332,7 +25068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>19</v>
       </c>
@@ -21379,7 +25115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>22</v>
       </c>
@@ -21426,7 +25162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>20</v>
       </c>
@@ -21473,7 +25209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -21520,7 +25256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>20</v>
       </c>
@@ -21567,7 +25303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>21</v>
       </c>
@@ -21614,7 +25350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>21</v>
       </c>
@@ -21661,7 +25397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>21</v>
       </c>
@@ -21708,7 +25444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>20</v>
       </c>
@@ -21755,7 +25491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>22</v>
       </c>
@@ -21803,6 +25539,498 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919D5490-B754-43F1-8D08-1E39DF51AE8D}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="J1" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A2)</f>
+        <v>14</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="J2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A3)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="J3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A2)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A4)</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A3)</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="22">
+        <f>SUMPRODUCT(E3:E7,E15:E19)/SUM(E3:E7)</f>
+        <v>8.7222222222222214</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A3)</f>
+        <v>15</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="22">
+        <f>SUMPRODUCT(K3:K7,K15:K19)/SUM(K3:K7)</f>
+        <v>5.7068965517241379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A5)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A4)</f>
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>D5</f>
+        <v>2 - 10 horas</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A4)</f>
+        <v>10</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="22" t="str">
+        <f>J5</f>
+        <v>2 - 10 horas</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6)</f>
+        <v>29</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A5)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="22">
+        <f>SQRT(H13/E9)</f>
+        <v>4.1006986367637976</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A5)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="22">
+        <f>SQRT(N13/K9)</f>
+        <v>4.2464515362692108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="D7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A6)</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="J7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIFS('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6,'Tratamento de dados'!$F$2:$F$57,horas!A6)</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="22">
+        <f>SUM(B2:B6)</f>
+        <v>65</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="H8" s="22">
+        <f>(E15-$H$4)^2</f>
+        <v>76.077160493827151</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="N8" s="22">
+        <f>(K15-$N$4)^2</f>
+        <v>32.568668252080855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="D9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E3:E7)</f>
+        <v>27</v>
+      </c>
+      <c r="H9" s="22">
+        <f>(E16-$H$4)^2</f>
+        <v>59.632716049382701</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9">
+        <f>SUM(K3:K7)</f>
+        <v>29</v>
+      </c>
+      <c r="N9" s="22">
+        <f>(K16-$N$4)^2</f>
+        <v>22.154875148632581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="H10" s="22">
+        <f>(E17-$H$4)^2</f>
+        <v>7.4104938271604892</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="N10" s="22">
+        <f>(K17-$N$4)^2</f>
+        <v>8.5909631391200975E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6)</f>
+        <v>27</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="H11" s="22">
+        <f>(E18-$H$4)^2</f>
+        <v>45.938271604938279</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="N11" s="22">
+        <f>(K18-$N$4)^2</f>
+        <v>95.90487514863257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="29">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6)</f>
+        <v>29</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="H12" s="22">
+        <f>(E19-$H$4)^2</f>
+        <v>264.96604938271605</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="N12" s="22">
+        <f>(K19-$N$4)^2</f>
+        <v>372.22384066587392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13" s="23"/>
+      <c r="H13" s="22">
+        <f>SUM(H8:H12)</f>
+        <v>454.02469135802465</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="N13" s="22">
+        <f>SUM(N8:N12)</f>
+        <v>522.93816884661112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="J15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="J16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <f>(10-2)/2+2</f>
+        <v>6</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="J17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <f>(10-2)/2+2</f>
+        <v>6</v>
+      </c>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>15.5</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="J18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>15.5</v>
+      </c>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="28">
+        <v>25</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="J19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="28">
+        <v>25</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,"&lt;&gt;"&amp;'usa ad block'!A6)</f>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <f>SUMPRODUCT(E3:E7,E15:E19)/SUM(E3:E7)</f>
+        <v>8.7222222222222214</v>
+      </c>
+      <c r="D22" t="str">
+        <f>D5</f>
+        <v>2 - 10 horas</v>
+      </c>
+      <c r="E22" s="22">
+        <f>SQRT(H13/E9)</f>
+        <v>4.1006986367637976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="28">
+        <f>COUNTIF('Tratamento de dados'!$K$2:$K$57,'usa ad block'!A6)</f>
+        <v>29</v>
+      </c>
+      <c r="C23" s="28">
+        <f>SUMPRODUCT(K3:K7,K15:K19)/SUM(K3:K7)</f>
+        <v>5.7068965517241379</v>
+      </c>
+      <c r="D23" s="28" t="str">
+        <f>J5</f>
+        <v>2 - 10 horas</v>
+      </c>
+      <c r="E23" s="29">
+        <f>SQRT(N13/K9)</f>
+        <v>4.2464515362692108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="J1:N1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -22207,8 +26435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757AD283-A500-4C6D-98D0-92BF72308E9D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22375,7 +26603,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
